--- a/biology/Zoologie/Corytophanidae/Corytophanidae.xlsx
+++ b/biology/Zoologie/Corytophanidae/Corytophanidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Corytophanidae sont une famille de sauriens. Elle a été créée par Leopold Fitzinger en 1843.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent dans le nord de l'Amérique du Sud, en Amérique centrale et dans le sud de l'Amérique du Nord.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (15 juillet 2012)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (15 juillet 2012) :
 Basiliscus Laurenti, 1768
 Corytophanes Boie, 1826
 Laemanctus Wiegmann, 1834</t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cope, 1900 : The crocodilians, lizards and snakes of North America. Annual report of the Board of Regents of the Smithsonian Institution, vol. 1898, p. 153-1270 (texte intégral).
 Fitzinger, 1843 : Systema Reptilium, fasciculus primus, Amblyglossae. Braumüller et Seidel, Wien, p. 1-106 (texte intégral).</t>
